--- a/hardware/tools/diffprobe/simpleversion_eagle/bom_diffprobesimple.xlsx
+++ b/hardware/tools/diffprobe/simpleversion_eagle/bom_diffprobesimple.xlsx
@@ -562,7 +562,7 @@
   <dimension ref="A3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="J19" s="2">
         <f>SUM(J4:J18)</f>
-        <v>13.688000000000001</v>
+        <v>15.688000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/tools/diffprobe/simpleversion_eagle/bom_diffprobesimple.xlsx
+++ b/hardware/tools/diffprobe/simpleversion_eagle/bom_diffprobesimple.xlsx
@@ -87,9 +87,6 @@
     <t>X1, X2</t>
   </si>
   <si>
-    <t>SMA Male</t>
-  </si>
-  <si>
     <t>641-1014-1-ND</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>SMA Female</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,19 +619,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" t="s">
         <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
       </c>
       <c r="J4" s="2">
         <v>4.51</v>
@@ -645,13 +645,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -700,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>17</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>12</v>
@@ -751,25 +751,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="J10" s="2">
         <v>3.4</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>12</v>
@@ -797,16 +797,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="J12" s="2">
         <v>0.63</v>
@@ -820,19 +820,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2">
         <v>0.82</v>
@@ -849,10 +849,10 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -863,25 +863,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2">
         <v>0.3</v>
@@ -898,7 +898,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
     <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="2">
         <f>SUM(J4:J18)</f>
